--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value523.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value523.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161625614749917</v>
+        <v>1.282184362411499</v>
       </c>
       <c r="B1">
-        <v>1.801563671616305</v>
+        <v>2.432773590087891</v>
       </c>
       <c r="C1">
-        <v>2.048986755478307</v>
+        <v>3.306196451187134</v>
       </c>
       <c r="D1">
-        <v>2.263571214943255</v>
+        <v>3.27686595916748</v>
       </c>
       <c r="E1">
-        <v>1.657912340556555</v>
+        <v>1.065208554267883</v>
       </c>
     </row>
   </sheetData>
